--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Serpinf1-Plxdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Serpinf1-Plxdc2.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>5.018448999999999</v>
+        <v>4.237284666666667</v>
       </c>
       <c r="H2">
-        <v>15.055347</v>
+        <v>12.711854</v>
       </c>
       <c r="I2">
-        <v>0.007216928732731273</v>
+        <v>0.005927002683330217</v>
       </c>
       <c r="J2">
-        <v>0.007216928732731273</v>
+        <v>0.005927002683330217</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.416526333333333</v>
+        <v>2.042773</v>
       </c>
       <c r="N2">
-        <v>13.249579</v>
+        <v>6.128319</v>
       </c>
       <c r="O2">
-        <v>0.03380457256708</v>
+        <v>0.01583034013491924</v>
       </c>
       <c r="P2">
-        <v>0.03380457256708</v>
+        <v>0.01583034013491925</v>
       </c>
       <c r="Q2">
-        <v>22.16411216099033</v>
+        <v>8.655810710380667</v>
       </c>
       <c r="R2">
-        <v>199.477009448913</v>
+        <v>77.902296393426</v>
       </c>
       <c r="S2">
-        <v>0.000243965191057059</v>
+        <v>9.382646845769639E-05</v>
       </c>
       <c r="T2">
-        <v>0.000243965191057059</v>
+        <v>9.382646845769641E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>5.018448999999999</v>
+        <v>4.237284666666667</v>
       </c>
       <c r="H3">
-        <v>15.055347</v>
+        <v>12.711854</v>
       </c>
       <c r="I3">
-        <v>0.007216928732731273</v>
+        <v>0.005927002683330217</v>
       </c>
       <c r="J3">
-        <v>0.007216928732731273</v>
+        <v>0.005927002683330217</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>335.24028</v>
       </c>
       <c r="O3">
-        <v>0.8553218462766417</v>
+        <v>0.8659744473689385</v>
       </c>
       <c r="P3">
-        <v>0.8553218462766417</v>
+        <v>0.8659744473689385</v>
       </c>
       <c r="Q3">
-        <v>560.79541597524</v>
+        <v>473.50283269768</v>
       </c>
       <c r="R3">
-        <v>5047.15874377716</v>
+        <v>4261.52549427912</v>
       </c>
       <c r="S3">
-        <v>0.006172796808126656</v>
+        <v>0.0051326328732511</v>
       </c>
       <c r="T3">
-        <v>0.006172796808126656</v>
+        <v>0.0051326328732511</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>5.018448999999999</v>
+        <v>4.237284666666667</v>
       </c>
       <c r="H4">
-        <v>15.055347</v>
+        <v>12.711854</v>
       </c>
       <c r="I4">
-        <v>0.007216928732731273</v>
+        <v>0.005927002683330217</v>
       </c>
       <c r="J4">
-        <v>0.007216928732731273</v>
+        <v>0.005927002683330217</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.21005766666667</v>
+        <v>14.62315066666667</v>
       </c>
       <c r="N4">
-        <v>33.630173</v>
+        <v>43.869452</v>
       </c>
       <c r="O4">
-        <v>0.08580299974979994</v>
+        <v>0.1133211810110592</v>
       </c>
       <c r="P4">
-        <v>0.08580299974979994</v>
+        <v>0.1133211810110592</v>
       </c>
       <c r="Q4">
-        <v>56.25710268722565</v>
+        <v>61.9624520982231</v>
       </c>
       <c r="R4">
-        <v>506.3139241850309</v>
+        <v>557.6620688840079</v>
       </c>
       <c r="S4">
-        <v>0.0006192341342488654</v>
+        <v>0.0006716549439306971</v>
       </c>
       <c r="T4">
-        <v>0.0006192341342488654</v>
+        <v>0.0006716549439306971</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>5.018448999999999</v>
+        <v>4.237284666666667</v>
       </c>
       <c r="H5">
-        <v>15.055347</v>
+        <v>12.711854</v>
       </c>
       <c r="I5">
-        <v>0.007216928732731273</v>
+        <v>0.005927002683330217</v>
       </c>
       <c r="J5">
-        <v>0.007216928732731273</v>
+        <v>0.005927002683330217</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.275441</v>
+        <v>0.628953</v>
       </c>
       <c r="N5">
-        <v>9.826323</v>
+        <v>1.886859</v>
       </c>
       <c r="O5">
-        <v>0.02507058140647845</v>
+        <v>0.0048740314850832</v>
       </c>
       <c r="P5">
-        <v>0.02507058140647844</v>
+        <v>0.0048740314850832</v>
       </c>
       <c r="Q5">
-        <v>16.437633611009</v>
+        <v>2.665052902954</v>
       </c>
       <c r="R5">
-        <v>147.938702499081</v>
+        <v>23.985476126586</v>
       </c>
       <c r="S5">
-        <v>0.0001809325992986927</v>
+        <v>2.888839769072409E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001809325992986927</v>
+        <v>2.888839769072409E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>2026.483642</v>
       </c>
       <c r="I6">
-        <v>0.9714148748852961</v>
+        <v>0.9448640602589355</v>
       </c>
       <c r="J6">
-        <v>0.9714148748852962</v>
+        <v>0.9448640602589357</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.416526333333333</v>
+        <v>2.042773</v>
       </c>
       <c r="N6">
-        <v>13.249579</v>
+        <v>6.128319</v>
       </c>
       <c r="O6">
-        <v>0.03380457256708</v>
+        <v>0.01583034013491924</v>
       </c>
       <c r="P6">
-        <v>0.03380457256708</v>
+        <v>0.01583034013491925</v>
       </c>
       <c r="Q6">
-        <v>2983.339456320746</v>
+        <v>1379.882022939755</v>
       </c>
       <c r="R6">
-        <v>26850.05510688672</v>
+        <v>12418.9382064578</v>
       </c>
       <c r="S6">
-        <v>0.03283826463080093</v>
+        <v>0.01495751945515978</v>
       </c>
       <c r="T6">
-        <v>0.03283826463080093</v>
+        <v>0.01495751945515979</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>2026.483642</v>
       </c>
       <c r="I7">
-        <v>0.9714148748852961</v>
+        <v>0.9448640602589355</v>
       </c>
       <c r="J7">
-        <v>0.9714148748852962</v>
+        <v>0.9448640602589357</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>335.24028</v>
       </c>
       <c r="O7">
-        <v>0.8553218462766417</v>
+        <v>0.8659744473689385</v>
       </c>
       <c r="P7">
-        <v>0.8553218462766417</v>
+        <v>0.8659744473689385</v>
       </c>
       <c r="Q7">
-        <v>75484.32706216665</v>
+        <v>75484.32706216663</v>
       </c>
       <c r="R7">
-        <v>679358.9435594999</v>
+        <v>679358.9435594998</v>
       </c>
       <c r="S7">
-        <v>0.8308723642874843</v>
+        <v>0.8182281324215031</v>
       </c>
       <c r="T7">
-        <v>0.8308723642874845</v>
+        <v>0.8182281324215032</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>2026.483642</v>
       </c>
       <c r="I8">
-        <v>0.9714148748852961</v>
+        <v>0.9448640602589355</v>
       </c>
       <c r="J8">
-        <v>0.9714148748852962</v>
+        <v>0.9448640602589357</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.21005766666667</v>
+        <v>14.62315066666667</v>
       </c>
       <c r="N8">
-        <v>33.630173</v>
+        <v>43.869452</v>
       </c>
       <c r="O8">
-        <v>0.08580299974979994</v>
+        <v>0.1133211810110592</v>
       </c>
       <c r="P8">
-        <v>0.08580299974979994</v>
+        <v>0.1133211810110592</v>
       </c>
       <c r="Q8">
-        <v>7572.332829125562</v>
+        <v>9877.858540167132</v>
       </c>
       <c r="R8">
-        <v>68150.99546213007</v>
+        <v>88900.72686150418</v>
       </c>
       <c r="S8">
-        <v>0.08335031026673499</v>
+        <v>0.1070731112034472</v>
       </c>
       <c r="T8">
-        <v>0.08335031026673501</v>
+        <v>0.1070731112034472</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>2026.483642</v>
       </c>
       <c r="I9">
-        <v>0.9714148748852961</v>
+        <v>0.9448640602589355</v>
       </c>
       <c r="J9">
-        <v>0.9714148748852962</v>
+        <v>0.9448640602589357</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.275441</v>
+        <v>0.628953</v>
       </c>
       <c r="N9">
-        <v>9.826323</v>
+        <v>1.886859</v>
       </c>
       <c r="O9">
-        <v>0.02507058140647845</v>
+        <v>0.0048740314850832</v>
       </c>
       <c r="P9">
-        <v>0.02507058140647844</v>
+        <v>0.0048740314850832</v>
       </c>
       <c r="Q9">
-        <v>2212.542535612041</v>
+        <v>424.854322028942</v>
       </c>
       <c r="R9">
-        <v>19912.88282050837</v>
+        <v>3823.688898260478</v>
       </c>
       <c r="S9">
-        <v>0.02435393570027589</v>
+        <v>0.004605297178825602</v>
       </c>
       <c r="T9">
-        <v>0.02435393570027589</v>
+        <v>0.004605297178825602</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.02608766666667</v>
+        <v>32.27539233333334</v>
       </c>
       <c r="H10">
-        <v>39.078263</v>
+        <v>96.826177</v>
       </c>
       <c r="I10">
-        <v>0.0187325499086756</v>
+        <v>0.04514597248329053</v>
       </c>
       <c r="J10">
-        <v>0.0187325499086756</v>
+        <v>0.04514597248329053</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.416526333333333</v>
+        <v>2.042773</v>
       </c>
       <c r="N10">
-        <v>13.249579</v>
+        <v>6.128319</v>
       </c>
       <c r="O10">
-        <v>0.03380457256708</v>
+        <v>0.01583034013491924</v>
       </c>
       <c r="P10">
-        <v>0.03380457256708</v>
+        <v>0.01583034013491925</v>
       </c>
       <c r="Q10">
-        <v>57.53005920014188</v>
+        <v>65.93130002294033</v>
       </c>
       <c r="R10">
-        <v>517.770532801277</v>
+        <v>593.3817002064631</v>
       </c>
       <c r="S10">
-        <v>0.000633245842754272</v>
+        <v>0.0007146761001321938</v>
       </c>
       <c r="T10">
-        <v>0.000633245842754272</v>
+        <v>0.000714676100132194</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.02608766666667</v>
+        <v>32.27539233333334</v>
       </c>
       <c r="H11">
-        <v>39.078263</v>
+        <v>96.826177</v>
       </c>
       <c r="I11">
-        <v>0.0187325499086756</v>
+        <v>0.04514597248329053</v>
       </c>
       <c r="J11">
-        <v>0.0187325499086756</v>
+        <v>0.04514597248329053</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>335.24028</v>
       </c>
       <c r="O11">
-        <v>0.8553218462766417</v>
+        <v>0.8659744473689385</v>
       </c>
       <c r="P11">
-        <v>0.8553218462766417</v>
+        <v>0.8659744473689385</v>
       </c>
       <c r="Q11">
-        <v>1455.62309222596</v>
+        <v>3606.67052097884</v>
       </c>
       <c r="R11">
-        <v>13100.60783003364</v>
+        <v>32460.03468880956</v>
       </c>
       <c r="S11">
-        <v>0.01602235917335775</v>
+        <v>0.03909525857215081</v>
       </c>
       <c r="T11">
-        <v>0.01602235917335775</v>
+        <v>0.03909525857215081</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.02608766666667</v>
+        <v>32.27539233333334</v>
       </c>
       <c r="H12">
-        <v>39.078263</v>
+        <v>96.826177</v>
       </c>
       <c r="I12">
-        <v>0.0187325499086756</v>
+        <v>0.04514597248329053</v>
       </c>
       <c r="J12">
-        <v>0.0187325499086756</v>
+        <v>0.04514597248329053</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.21005766666667</v>
+        <v>14.62315066666667</v>
       </c>
       <c r="N12">
-        <v>33.630173</v>
+        <v>43.869452</v>
       </c>
       <c r="O12">
-        <v>0.08580299974979994</v>
+        <v>0.1133211810110592</v>
       </c>
       <c r="P12">
-        <v>0.08580299974979994</v>
+        <v>0.1133211810110592</v>
       </c>
       <c r="Q12">
-        <v>146.0231939143888</v>
+        <v>471.9679249161115</v>
       </c>
       <c r="R12">
-        <v>1314.208745229499</v>
+        <v>4247.711324245003</v>
       </c>
       <c r="S12">
-        <v>0.001607308975127207</v>
+        <v>0.005115994919699263</v>
       </c>
       <c r="T12">
-        <v>0.001607308975127207</v>
+        <v>0.005115994919699263</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.02608766666667</v>
+        <v>32.27539233333334</v>
       </c>
       <c r="H13">
-        <v>39.078263</v>
+        <v>96.826177</v>
       </c>
       <c r="I13">
-        <v>0.0187325499086756</v>
+        <v>0.04514597248329053</v>
       </c>
       <c r="J13">
-        <v>0.0187325499086756</v>
+        <v>0.04514597248329053</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.275441</v>
+        <v>0.628953</v>
       </c>
       <c r="N13">
-        <v>9.826323</v>
+        <v>1.886859</v>
       </c>
       <c r="O13">
-        <v>0.02507058140647845</v>
+        <v>0.0048740314850832</v>
       </c>
       <c r="P13">
-        <v>0.02507058140647844</v>
+        <v>0.0048740314850832</v>
       </c>
       <c r="Q13">
-        <v>42.66618161299434</v>
+        <v>20.299704834227</v>
       </c>
       <c r="R13">
-        <v>383.995634516949</v>
+        <v>182.697343508043</v>
       </c>
       <c r="S13">
-        <v>0.000469635917436372</v>
+        <v>0.0002200428913082578</v>
       </c>
       <c r="T13">
-        <v>0.0004696359174363719</v>
+        <v>0.0002200428913082578</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.832754333333333</v>
+        <v>2.904661666666667</v>
       </c>
       <c r="H14">
-        <v>5.498263</v>
+        <v>8.713985000000001</v>
       </c>
       <c r="I14">
-        <v>0.002635646473297045</v>
+        <v>0.004062964574443608</v>
       </c>
       <c r="J14">
-        <v>0.002635646473297045</v>
+        <v>0.004062964574443608</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.416526333333333</v>
+        <v>2.042773</v>
       </c>
       <c r="N14">
-        <v>13.249579</v>
+        <v>6.128319</v>
       </c>
       <c r="O14">
-        <v>0.03380457256708</v>
+        <v>0.01583034013491924</v>
       </c>
       <c r="P14">
-        <v>0.03380457256708</v>
+        <v>0.01583034013491925</v>
       </c>
       <c r="Q14">
-        <v>8.094407775697443</v>
+        <v>5.933564426801667</v>
       </c>
       <c r="R14">
-        <v>72.84966998127699</v>
+        <v>53.40207984121501</v>
       </c>
       <c r="S14">
-        <v>8.909690246773845E-05</v>
+        <v>6.431811116956973E-05</v>
       </c>
       <c r="T14">
-        <v>8.909690246773845E-05</v>
+        <v>6.431811116956974E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.832754333333333</v>
+        <v>2.904661666666667</v>
       </c>
       <c r="H15">
-        <v>5.498263</v>
+        <v>8.713985000000001</v>
       </c>
       <c r="I15">
-        <v>0.002635646473297045</v>
+        <v>0.004062964574443608</v>
       </c>
       <c r="J15">
-        <v>0.002635646473297045</v>
+        <v>0.004062964574443608</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>335.24028</v>
       </c>
       <c r="O15">
-        <v>0.8553218462766417</v>
+        <v>0.8659744473689385</v>
       </c>
       <c r="P15">
-        <v>0.8553218462766417</v>
+        <v>0.8659744473689385</v>
       </c>
       <c r="Q15">
-        <v>204.80435862596</v>
+        <v>324.5865301462001</v>
       </c>
       <c r="R15">
-        <v>1843.23922763364</v>
+        <v>2921.2787713158</v>
       </c>
       <c r="S15">
-        <v>0.002254326007672948</v>
+        <v>0.003518423502033378</v>
       </c>
       <c r="T15">
-        <v>0.002254326007672948</v>
+        <v>0.003518423502033378</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.832754333333333</v>
+        <v>2.904661666666667</v>
       </c>
       <c r="H16">
-        <v>5.498263</v>
+        <v>8.713985000000001</v>
       </c>
       <c r="I16">
-        <v>0.002635646473297045</v>
+        <v>0.004062964574443608</v>
       </c>
       <c r="J16">
-        <v>0.002635646473297045</v>
+        <v>0.004062964574443608</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.21005766666667</v>
+        <v>14.62315066666667</v>
       </c>
       <c r="N16">
-        <v>33.630173</v>
+        <v>43.869452</v>
       </c>
       <c r="O16">
-        <v>0.08580299974979994</v>
+        <v>0.1133211810110592</v>
       </c>
       <c r="P16">
-        <v>0.08580299974979994</v>
+        <v>0.1133211810110592</v>
       </c>
       <c r="Q16">
-        <v>20.54528176549989</v>
+        <v>42.47530518735778</v>
       </c>
       <c r="R16">
-        <v>184.907535889499</v>
+        <v>382.27774668622</v>
       </c>
       <c r="S16">
-        <v>0.0002261463736888675</v>
+        <v>0.0004604199439820452</v>
       </c>
       <c r="T16">
-        <v>0.0002261463736888675</v>
+        <v>0.0004604199439820452</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.832754333333333</v>
+        <v>2.904661666666667</v>
       </c>
       <c r="H17">
-        <v>5.498263</v>
+        <v>8.713985000000001</v>
       </c>
       <c r="I17">
-        <v>0.002635646473297045</v>
+        <v>0.004062964574443608</v>
       </c>
       <c r="J17">
-        <v>0.002635646473297045</v>
+        <v>0.004062964574443608</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.275441</v>
+        <v>0.628953</v>
       </c>
       <c r="N17">
-        <v>9.826323</v>
+        <v>1.886859</v>
       </c>
       <c r="O17">
-        <v>0.02507058140647845</v>
+        <v>0.0048740314850832</v>
       </c>
       <c r="P17">
-        <v>0.02507058140647844</v>
+        <v>0.0048740314850832</v>
       </c>
       <c r="Q17">
-        <v>6.003078686327666</v>
+        <v>1.826895669235</v>
       </c>
       <c r="R17">
-        <v>54.027708176949</v>
+        <v>16.442061023115</v>
       </c>
       <c r="S17">
-        <v>6.607718946749139E-05</v>
+        <v>1.980301725861581E-05</v>
       </c>
       <c r="T17">
-        <v>6.607718946749139E-05</v>
+        <v>1.980301725861581E-05</v>
       </c>
     </row>
   </sheetData>
